--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Projects\project\nlp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_chatbot\chat_bot_team\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50073FBA-032D-4D1F-9115-A90B5727A42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383D3EEC-3339-4906-A7E8-D013806763CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC63A9B-D72F-4576-BEE2-9B28BB8D823E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6CC63A9B-D72F-4576-BEE2-9B28BB8D823E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,12 +49,6 @@
 กฎหมายผลิตภัณฑ์อาหารและยา </t>
   </si>
   <si>
-    <t>1.ร้านขายของออนไลน์/ผู้ขายสินค้า/ผู้ให้บริการ ผ่านระบบอินเทอร์เน็ตและโซเชียลมีเดีย
-2.ผู้ให้บริการอินเทอร์เน็ต (Internet Service Provider : ISP)
-3.ผู้ให้เช่าพื้นที่ของเครื่องคอมพิวเตอร์แม่ข่าย (Webhosting)
-4.ผู้ให้บริการเป็นตัวกลางในการซื้อขายสินค้าและบริการ ผ่านอินเทอร์เน็ต (E-Marketplace) เช่น Kaidee, Shopee, Lazada</t>
-  </si>
-  <si>
     <t>พ.ร.บ. คุ้มครองผู้บริโภค พ.ศ. 2522  มาตรา 224 ได้กำหนดหลักเกณฑ์ในการโฆษณาไว้ว่า การโฆษณา จะต้องไม่ใช้ข้อความ (รวมถึงภาพของสินค้า) ที่เป็นการไม่เป็นธรรมต่อผู้บริโภคหรือใช้ข้อความที่อาจก่อให้เกิด ผลเสียต่อสังคมเป็นส่วนรวม ซึ่งมีลักษณะดังนี้
  (1) ข้อความที่เป็นเท็จหรือเกินความจริง
  (2) ข้อความที่จะก่อให้เกิดความเข้าใจผิดในสาระสำคัญเกี่ยวกับสินค้าหรือบริการไม่ว่าจะกระทำโดยใช้หรืออ้างอิงรายงานทางวิชาการ สถิติ หรือสิ่งใดสิ่งหนึ่งอันไม่เป็นความจริงหรือเกิน ความจริงหรือไม่ก็ตาม 
@@ -125,6 +119,14 @@
   </si>
   <si>
     <t>สวัสดี สามารถพิมพ์คีย์เวิร์ดของคำถามที่อยากรู้ได้เลยนะ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ร้านขายของออนไลน์ ที่ต้องจดทะเบียนพาณิชย์อิเล็กทรอนิกส์ ได้แก่
+1.ร้านขายของออนไลน์/ผู้ขายสินค้า/ผู้ให้บริการ ผ่านระบบอินเทอร์เน็ตและโซเชียลมีเดีย
+2.ผู้ให้บริการอินเทอร์เน็ต (Internet Service Provider : ISP)
+3.ผู้ให้เช่าพื้นที่ของเครื่องคอมพิวเตอร์แม่ข่าย (Webhosting)
+4.ผู้ให้บริการเป็นตัวกลางในการซื้อขายสินค้าและบริการ ผ่านอินเทอร์เน็ต (E-Marketplace) เช่น Kaidee, Shopee, Lazada
+</t>
   </si>
 </sst>
 </file>
@@ -482,109 +484,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2CF2B0-CADD-4D95-B704-67FCE40F32EA}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="107.75" customWidth="1"/>
+    <col min="2" max="2" width="107.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="138" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="114" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" ht="69" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" ht="165.6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="185.25" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -558,9 +558,27 @@
         <v>สบายดีงับบ</v>
       </c>
     </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
+        <v>บอทโง่</v>
+      </c>
+      <c r="B20" t="str" xml:space="preserve">
+        <v xml:space="preserve">ไม่เข้าจายย พิมพ์ตามหัวข้อนี้หน่อยน้า
+        1. กฎหมายที่สำคัญ
+        2. การฝากร้าน
+        3. ขั้นตอนการจดทะเบียนพาณิชย์ค้าขายออนไลน์
+        4. เริ่มต้นเปิดร้าน
+        5. ร้านแบบไหนต้องจดทะเบียนอิเล็กทรอนิกส์
+        6. กม.ขายของออนไลน์กับกม.คุ้มครองผู้บริโภค
+        7. สินค้าที่ห้ามขายออนไลน์
+        8. รายละเอียดที่ต้องแสดงในการขาย
+        9. การเสียภาษี
+        10. การขายตรง</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B20"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -510,14 +510,6 @@
         <v>สวัสดีค้าบบ</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>ทักทาย</v>
-      </c>
-      <c r="B14" t="str">
-        <v>สวัสดีค้าาา</v>
-      </c>
-    </row>
     <row r="15">
       <c r="A15" t="str">
         <v>ทักทาย</v>
@@ -558,27 +550,49 @@
         <v>สบายดีงับบ</v>
       </c>
     </row>
-    <row r="20" xml:space="preserve">
-      <c r="A20" t="str">
+    <row r="21">
+      <c r="A21" t="str">
+        <v>easter</v>
+      </c>
+      <c r="B21" t="str">
+        <v>จารย์โบ๊ท No1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
         <v>บอทโง่</v>
       </c>
-      <c r="B20" t="str" xml:space="preserve">
-        <v xml:space="preserve">ไม่เข้าจายย พิมพ์ตามหัวข้อนี้หน่อยน้า
-        1. กฎหมายที่สำคัญ
-        2. การฝากร้าน
-        3. ขั้นตอนการจดทะเบียนพาณิชย์ค้าขายออนไลน์
-        4. เริ่มต้นเปิดร้าน
-        5. ร้านแบบไหนต้องจดทะเบียนอิเล็กทรอนิกส์
-        6. กม.ขายของออนไลน์กับกม.คุ้มครองผู้บริโภค
-        7. สินค้าที่ห้ามขายออนไลน์
-        8. รายละเอียดที่ต้องแสดงในการขาย
-        9. การเสียภาษี
-        10. การขายตรง</v>
+      <c r="B23" t="str">
+        <v>เราขอโทษ</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>ชมบอท</v>
+      </c>
+      <c r="B25" t="str">
+        <v>ขอบคุณค้าบ</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>ทำอะไร</v>
+      </c>
+      <c r="B27" t="str">
+        <v>รอให้ความช่วยเหลือด้านกฎหมายค้าบ</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>ชื่ออะไร</v>
+      </c>
+      <c r="B29" t="str">
+        <v>น้องบอท</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B29"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,15 +393,14 @@
         <v>หนึ่ง</v>
       </c>
       <c r="B2" t="str" xml:space="preserve">
-        <v xml:space="preserve">กฎหมายทะเบียนพาณิชย์_x000d_
-กฎหมายลิขสิทธิ์ พ.ศ.2537_x000d_
-กฎหมายขายตรงและตลาดขายตรง พ.ศ.2545_x000d_
-กฎหมายธุรกรรมทางอิเล็กทรอนิกส์ พ.ศ.2544_x000d_
-กฎหมายคุ้มครองผู้บริโภค พ.ศ.2522_x000d_
-กฎหมายว่าด้วยเกี่ยวกับการกระทำผิดเกี่ยวกับคอมพิวเตอร์ พ.ศ.2560_x000d_
-กฎหมายภาษี (ประมวลรัษฎากร)_x000d_
-พระราชบัญญัติการแข่งขันทางการค้า_x000d_
-กฎหมายว่าด้วยราคาสินค้าและบริการ พ.ศ.2542_x000d_
+        <v xml:space="preserve">กฎหมายทะเบียนพาณิชย์กฎหมายลิขสิทธิ์ พ.ศ.2537
+กฎหมายขายตรงและตลาดขายตรง พ.ศ.2545
+กฎหมายธุรกรรมทางอิเล็กทรอนิกส์ พ.ศ.2544
+กฎหมายคุ้มครองผู้บริโภค พ.ศ.2522
+กฎหมายว่าด้วยเกี่ยวกับการกระทำผิดเกี่ยวกับคอมพิวเตอร์ พ.ศ.2560
+กฎหมายภาษี (ประมวลรัษฎากร)
+พระราชบัญญัติการแข่งขันทางการค้า
+กฎหมายว่าด้วยราคาสินค้าและบริการ พ.ศ.2542
 กฎหมายผลิตภัณฑ์อาหารและยา </v>
       </c>
     </row>
@@ -550,14 +549,6 @@
         <v>สบายดีงับบ</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>easter</v>
-      </c>
-      <c r="B21" t="str">
-        <v>จารย์โบ๊ท No1</v>
-      </c>
-    </row>
     <row r="23">
       <c r="A23" t="str">
         <v>บอทโง่</v>
@@ -587,12 +578,29 @@
         <v>ชื่ออะไร</v>
       </c>
       <c r="B29" t="str">
-        <v>น้องบอท</v>
+        <v>น้องบอทค้าบบ</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
+      <c r="A31" t="str">
+        <v>หัวข้อ</v>
+      </c>
+      <c r="B31" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. กฎหมายที่สำคัญ
+2. การฝากร้าน
+3. ขั้นตอนการจดทะเบียนพาณิชย์ค้าขายออนไลน์
+4. เริ่มต้นเปิดร้าน
+5. ร้านแบบไหนต้องจดทะเบียนอิเล็กทรอนิกส์
+6. กม.ขายของออนไลน์กับกม.คุ้มครองผู้บริโภค
+7. สินค้าที่ห้ามขายออนไลน์
+8. รายละเอียดที่ต้องแสดงในการขาย
+9. การเสียภาษี
+10. การขายตรงได้ไหม</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B29"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B31"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -1,23 +1,202 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Projects\baisd\chat_bot_team\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F85CA08-B563-465C-9686-2B0D5F8C8F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>หนึ่ง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">กฎหมายทะเบียนพาณิชย์กฎหมายลิขสิทธิ์ พ.ศ.2537
+กฎหมายขายตรงและตลาดขายตรง พ.ศ.2545
+กฎหมายธุรกรรมทางอิเล็กทรอนิกส์ พ.ศ.2544
+กฎหมายคุ้มครองผู้บริโภค พ.ศ.2522
+กฎหมายว่าด้วยเกี่ยวกับการกระทำผิดเกี่ยวกับคอมพิวเตอร์ พ.ศ.2560
+กฎหมายภาษี (ประมวลรัษฎากร)
+พระราชบัญญัติการแข่งขันทางการค้า
+กฎหมายว่าด้วยราคาสินค้าและบริการ พ.ศ.2542
+กฎหมายผลิตภัณฑ์อาหารและยา </t>
+  </si>
+  <si>
+    <t>สอง</t>
+  </si>
+  <si>
+    <t>สาม</t>
+  </si>
+  <si>
+    <t>การจดทะเบียนพาณิชย์สมารถยื่นขอจดทะเบียนพาณิชย์ ณ สำนักงานทะเบียนพาณิชย์กรุงเทพมหานคร (สำนักงานเขตต่างฯ) เมืองพัทยา เทศบาล องค์การบริหารส่วนตำบลที่สำนักงานแห่งใหญ่ตั้งอยู่ในท้องที่ หรือองค์การบริหารส่วนจังหวัดเฉพาะในท้องที่นอกและองค์การบริหารส่วนตำบลเขตเทศบาล ทั้งนี้ก็เพื่อให้มีหลักฐานแสดงว่าผู้ขายมีตัวตนอยู่จริง เป็นใครอยู่ที่ไหนเพราะการขายสินค้าออนไลน์ไม่จำเป็นต้องมีหน้าร้านผู้ซื้อผู้ขายไม่ได้พบกับผู้ซื้อไม่รู้ว่าผู้ขายเป็นใครอยู่ที่ไหนหากมีปัญหาก็จะได้มีหนทางติดต่อสื่อสารกันได้</t>
+  </si>
+  <si>
+    <t>สี่</t>
+  </si>
+  <si>
+    <t>ตามกฎหมาย หากจะเปิดร้านขายของออนไลน์ต้องไปจดทะเบียนพาณิชย์อิเล็กทรอนิกส์ กฎหมายนี้บังคับทั้งการขายของออนไลน์แบบบุคคลธรรมดาและนิติบุคคล ทั้งแบบมีหน้าร้านและไม่มีหน้าร้าน หากไม่ทำตามก็มีโทษปรับสูงสุดไม่เกิน 2,000 บาท และปรับไม่เกินวันละ 100 บาท จนกว่าจะไปจดทะเบียนให้ถูกต้องตามกฎหมาย</t>
+  </si>
+  <si>
+    <t>ห้า</t>
+  </si>
+  <si>
+    <t>หก</t>
+  </si>
+  <si>
+    <t>เจ็ด</t>
+  </si>
+  <si>
+    <t>การขายยาผ่านช่องทางออนไลน์ถือว่ามีความผิด เพราะ พ.ร.บ.ยา พ.ศ. 2510 มีการกำหนดว่าการขายยาจะต้องไม่ขายนอกสถานที่ที่ได้กำหนดไว้ในใบอนุญาต และทั้งตามม.19 ยาไม่ใช่สินค้าทั่วไปจึงจำเป็นจะต้องได้รับคำแนะนำที่ถูกต้องจากผู้ปฏิบัติวิชาชีพโดยตรง ดังนั้นกล่าวให้เข้าใจโดยง่ายคือการขายในอินเทอร์เน็ตถือเป็นการขายนอกสถานที่ที่อนุญาต โดยหากมีการฝ่าฝืนก็จะมีโทษจำคุกไม่เกิน 5 ปี หรือปรับไม่เกิน 10,000 บาท และอาจจะมีความผิดฐานโฆษณาด้วย ซึ่งอาจเกี่ยวข้องกับการโอ้อวดสรรพคุณเกินจริงซึ่งผิดกฎหมายม.88 ที่มีโทษปรับไม่เกิน 100,000 บาท ทั้งนี้ในกฎหมายได้ยกเว้นยาสามัญประจำบ้านให้สามารถขายได้ตามร้านสะดวกซื้อ ร้านขายของทั่วไป รวมถึงการขายยาออนไลน์ด้วย โดยยาสามัญประจำบ้าน  (household-medicine) คือยาที่สามารถซื้อได้โดยไม่จำเป็นจะต้องมีบุคลากรทางการแพทย์เป็นผู้จ่าย เนื่องจากเป็นยาที่มีความปลอดภัยในระดับหนึ่ง สามารถซื้อเองได้ ปัจจุบันนี้ทางองค์กรอาหารและยา (อ.ย.) ได้มีประกาศยาสามัญประจำบ้านแผนปัจจุบันทั้งหมด 52 รายการและยาสามัญประจำบ้านแผนโบราณทั้งหมด 28 รายการ ดังนั้น หากพ่อค้าแม่ขายท่านใดที่จะขายยาสามัญประจำบ้านก็ทำได้ ไม่มีความผิด</t>
+  </si>
+  <si>
+    <t>แปด</t>
+  </si>
+  <si>
+    <t>เก้า</t>
+  </si>
+  <si>
+    <t>สิบ</t>
+  </si>
+  <si>
+    <t>ทักทาย</t>
+  </si>
+  <si>
+    <t>สวัสดีจ้า</t>
+  </si>
+  <si>
+    <t>สวัสดีค้าบบ</t>
+  </si>
+  <si>
+    <t>สวัสดี</t>
+  </si>
+  <si>
+    <t>สวัสดีงับ</t>
+  </si>
+  <si>
+    <t>สบายดี</t>
+  </si>
+  <si>
+    <t>สบายดีจ้าา</t>
+  </si>
+  <si>
+    <t>สบายดีค้าบบ</t>
+  </si>
+  <si>
+    <t>สบายดีงับบ</t>
+  </si>
+  <si>
+    <t>บอทโง่</t>
+  </si>
+  <si>
+    <t>เราขอโทษ</t>
+  </si>
+  <si>
+    <t>ชมบอท</t>
+  </si>
+  <si>
+    <t>ขอบคุณค้าบ</t>
+  </si>
+  <si>
+    <t>ทำอะไร</t>
+  </si>
+  <si>
+    <t>รอให้ความช่วยเหลือด้านกฎหมายค้าบ</t>
+  </si>
+  <si>
+    <t>ชื่ออะไร</t>
+  </si>
+  <si>
+    <t>น้องบอทค้าบบ</t>
+  </si>
+  <si>
+    <t>หัวข้อ</t>
+  </si>
+  <si>
+    <t>1. กฎหมายที่สำคัญ
+2. การฝากร้าน
+3. ขั้นตอนการจดทะเบียนพาณิชย์ค้าขายออนไลน์
+4. เริ่มต้นเปิดร้าน
+5. ร้านแบบไหนต้องจดทะเบียนอิเล็กทรอนิกส์
+6. กม.ขายของออนไลน์กับกม.คุ้มครองผู้บริโภค
+7. สินค้าที่ห้ามขายออนไลน์
+8. รายละเอียดที่ต้องแสดงในการขาย
+9. การเสียภาษี
+10. การขายตรงได้ไหม</t>
+  </si>
+  <si>
+    <t>พระราชบัญญัติลิขสิทธิ์ พ.ศ. 2537  ผู้ขายสินค้าทางออนไลน์ต้องไม่ขายสินค้าละเมิดลิขสิทธิ์ คือบรรดาหนังสือ โปรแกรมคอมพิวเตอร์หรือ แอพพลิเคชั่น ต่างฯ เทปซีดีหนังและเพลง ที่ละเมิดลิขสิทธิ์ของผู้อื่น  ผู้ขายสินค้าละเมิดลิขสิทธิ์มีโทษปรับตั้งแต่หนึ่งหมื่นบาทถึงหนึ่งแสนบาท ถ้าเป็นการขายเพื่อการค้า มีโทษจำคุกตั้งแต่สามเดือนถึงสองปี ปรับตั้งแต่ห้าหมื่นบาทถึงสี่แสนบาท
+การแชร์รูป ข้อความ หรือคลิปวีดีโอของบุคคลอื่นในช่องทางต่างๆของร้านค้าถึงแม้ว่าจะให้ Credit ก็ถือว่าละเมิด และแม้ว่าการโพสนั้นจะไม่เกี่ยวข้องกับสินค้าที่ร้านจำหน่าย เช่น การโพสภาพดาราบนเพจของร้านค้าซึ่งเป็นการทำเพื่อการค้า ดังนั้นภาพดังกล่าวหากไม่ได้รับอนุญาตให้นำมาใช้จากเจ้าของภาพจึงถือว่าเป็นการละเมิดลิขสิทธิ์ได้  รูปภาพ ข้อความ หรือคลิปวีดีโอที่นำมาใช้กับร้านค้าถึงแม้จะเป็นภาพสินค้าที่ร้านจำหน่าย หากไม่ได้รับอนุญาตจากผู้สร้างสรรค์ ภาพ ข้อความ หรือคลิปวีดีโอถือเป็นการละเมิด ดังนั้นร้านค้าออนไลน์จึงไม่ควรแชร์ รูป ข้อความ หรือคลิปวีดีโอ โดยไม่ได้รับอนุญาตจากผู้สร้างสรรค์หากต้องการจะแชร์ภาพข่าวหรือข้อมูลใดๆก็ต้องให้เครดิตที่มาทุกครั้งซึ่งถ้าหากฝ่าฝืนจะมีโทษปรับหรือจำคุกตามมาตรา 53/1  พ.ร.บ.ลิขสิทธิ์</t>
+  </si>
+  <si>
+    <t>ไม่ได้ เนื่องจาก 
+1. กรณีเจ้าของเว็บไซต์ที่จดทะเบียนเว็บไซต์ไว้เพื่อขายสินค้าของตนเองก็ดีหรือเป็นคนกลางในการนำ สินค้าของบุคคลอื่นมาขายผ่านหน้าเว็บไซต์ก็ดี มีหน้าที่โดยตรงในการต้องไปจดทะเบียนต่อสำนักงานคณะกรรมการคุ้มครองผู้บริโภค ทั้งนี้เจ้าของเว็บไซต์จะต้องแจ้ง รายละเอียดเกี่ยวกับชนิดหรือประเภทของสินค้า ชื่อที่อยู่ของเจ้าของ ผลิตภัณฑ์ วิธีการซื้อขาย เงื่อนไขต่างๆ ให้ นายทะเบียนการประกอบธุรกิจตลาดแบบตรงทราบด้วย หากมีปัญหาการผิดสัญญาก็ดี สินค้าไม่ได้มาตรฐาน หรือไม่ปลอดภัยก็ดีสำนักงานคณะกรรมการคุ้มครองผู้บริโภคย่อมสามารถตรวจสอบและติดตามผู้ต้องรับผิดได้
+2. กรณีบริษัทห้างร้านหรือบุคคลธรรมดาที่เป็นเจ้าของผลิตภัณฑ์ ไม่ว่าจะเป็นผู้ผลิต ผู้นำเข้าหรือผู้แทนจำหน่าย หรือผู้ขาย หากจดทะเบียนเว็บไซต์เพื่อค้าขายสินค้าผ่านอินเตอร์เน็ตเป็นของตนเอง โดยไม่ผ่านเว็บไซต์ที่เป็นสื่อกลางดังที่กล่าวมาในข้อ 1.1 ดังนั้นบริษัท ห้างร้าน หรือบุคคลธรรมดาที่เป็นเจ้าของ ผลิตภัณฑ์จะต้องเป็นผู้มีหน้าที่ต้องไปจดทะเบียนการประกอบธุรกิจตลาดแบบตรงต่อสำนักงานคณะกรรมการคุ้มครองผู้บริโภคโดยตรง 
+3. ธุรกิจตลาดแบบตรงที่มีหน้าที่ต้องจดทะเบียนต่อสำนักงานคณะกรรมการคุ้มครองผู้บริโภคตามพระราชบัญญัติขายตรง และตลาดแบบตรง พ.ศ. 2545 นั้น หมายรวมถึงบุคคลที่ทำการค้าขายสินค้าผ่านสื่ออื่นๆด้วย เช่น สื่อโทรศัพท์ โทรสาร หรือเครื่องมือสื่อสารอิเล็กทรอนิกส์ในรูปแบบอื่นๆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">การเสียภาษีออนไลน์ ปัจจุบันร้านค้าออนไลน์ก็ต้องยื่นเสียภาษีหากมีรายได้ตามเกณฑ์ ดังนี้ 
+1. ภาษีเงินได้บุคคลธรรมดา หากมีเงินได้สุทธิตั้งแต่ 150,000 บาท/ปีขึ้นไป โดยเป็นการนำรายได้ทั้งหมดจากการขายสินค้าออนไลน์มาหักค่าใช้จ่ายก่อนที่จะนำไปคำนวณภาษี ซึ่งการคิดค่าใช้จ่าย สามารถ คิดได้ 2 วิธี คือ "แบบเหมา" จะเป็นการหักต้นทุนในสัดส่วนร้อยละ 60 ของรายได้ หรือการนำร้อยละ 40 ของ รายได้ทั้งหมดไปคิดภาษี ส่วนอีกวิธีจะคิด "แบบตามความจำเป็น" คือ น าค่าใช้จ่ายที่เกิดขึ้นจริง จากการขาย สินค้าออนไลน์มาหักออก ซึ่งวิธีนี้จำเป็นต้องมีใบเสร็จ หรือใบกำกับภาษี หรือเอกสารแสดงรายได้ ค่าใช้จ่ายต่าง ๆ ให้ถูกต้อง และครบถ้วน โดยวิธีนี้จะมีความยุ่งยากมาก ดังนั้นเจ้าของกิจการ หรือพ่อค้าแม่ค้าออนไลน์มักเลือกจ่าย "แบบเหมา" มากกว่า 
+2. ภาษีมูลค่าเพิ่ม (VAT) หากมีรายได้มากกว่า 1.8 ล้านบาท/ปีซึ่งเจ้าของกิจการหรือพ่อค้า แม่ค้าออนไลน์จะต้องไปยื่นคำขอจดทะเบียนภาษีมูลค่าเพิ่มที่สรรพากรในพื้นที่ ภายใน 30 นับตั้งแต่วันที่มีรายได้เกิน และในทุกๆ เดือน จะต้องนำใบกำกับภาษีไปยื่นเพื่อเสียภาษีแก่กรมสรรพากรภายในวันที่ 15 ของเดือนถัดไป </t>
+  </si>
+  <si>
+    <t>มาตรา 9 (5) มาตรา 28 แห่งพระราชบัญญัติว่าด้วยราคาสินค้าและบริการ พ.ศ. 2542  คณะกรรมการกลางว่าด้วยราคาสินค้าและบริการ ซึ่งผู้ประกอบธุรกิจเกี่ยวกับการจำหน่ายสินค้า หรือบริการผ่านระบบออนไลน์นั้นต้องแสดงรายละเอียดของสินค้าให้ชัดเจน ครบถ้วน เปิดเผย อ่านง่าย
+ทั้งนี้การแสดงราคาจำหน่ายสินค้าและบริการนั้น ต้องแสดงราคาต่อหน่วย โดยจะมีตัวเลขภาษาใดก็ได้แต่ต้องมีตัวเลขอารบิกอยู่ด้วยส่วนข้อความอื่นๆที่แสดงควบคู่กับการจำหน่ายนั้นจะเขียนภาษาใดก็ได้แต่ต้องมีภาษาไทย ซึ่งกรณีที่มีการเรียกเก็บค่าใช้จ่ายอื่น ๆ นอกเหนือจากราคาสินค้านั้น ต้องแสดงให้ชัดเจนครบถ้วนและเปิดเผย โดยแสดงควบคู่กับราคาจำหน่าย</t>
+  </si>
+  <si>
+    <t>พ.ร.บ. คุ้มครองผู้บริโภค พ.ศ. 2522  มาตรา 224 ได้กำหนดหลักเกณฑ์ในการโฆษณาไว้ว่า การโฆษณา จะต้องไม่ใช้ข้อความ (รวมถึงภาพของสินค้า) ที่เป็นการไม่เป็นธรรมต่อผู้บริโภคหรือใช้ข้อความที่อาจก่อให้เกิด ผลเสียต่อสังคมเป็นส่วนรวม ซึ่งมีลักษณะดังนี้
+ (1) ข้อความที่เป็นเท็จหรือเกินความจริง
+ (2) ข้อความที่จะก่อให้เกิดความเข้าใจผิดในสาระสำคัญเกี่ยวกับสินค้าหรือบริการไม่ว่าจะกระทำโดยใช้หรืออ้างอิงรายงานทางวิชาการ สถิติ หรือสิ่งใดสิ่งหนึ่งอันไม่เป็นความจริงหรือเกิน ความจริงหรือไม่ก็ตาม 
+ (3) ข้อความที่เป็นการสนับสนุนโดยตรงหรือโดยอ้อมให้มีการกระทาผิดกฎหมายหรือศีลธรรม หรือนำไปสู่ความเสื่อมเสียในวัฒนธรรมของชาติ
+ (4) ข้อความที่จะทาให้เกิดความแตกแยกหรือเสื่อมเสียความสามัคคีในหมู่ประชาชน 
+ (5) ข้อความอย่างอื่นตามที่กำหนดในกฎกระทรวง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ร้านขายของออนไลน์ ที่ต้องจดทะเบียนพาณิชย์อิเล็กทรอนิกส์ ได้แก่
+1.ร้านขายของออนไลน์/ผู้ขายสินค้า/ผู้ให้บริการ ผ่านระบบอินเทอร์เน็ตและโซเชียลมีเดีย
+2.ผู้ให้บริการอินเทอร์เน็ต (Internet Service Provider : ISP)
+3.ผู้ให้เช่าพื้นที่ของเครื่องคอมพิวเตอร์แม่ข่าย (Webhosting)
+4.ผู้ให้บริการเป็นตัวกลางในการซื้อขายสินค้าและบริการ ผ่านอินเทอร์เน็ต (E-Marketplace) เช่น Kaidee, Shopee, Lazada
+</t>
+  </si>
+  <si>
+    <t>ยินดีครับ</t>
+  </si>
+  <si>
+    <t>ยินดีค้าบบ</t>
+  </si>
+  <si>
+    <t>ยินดีจ้า</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -42,14 +221,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,233 +564,219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>tag</v>
-      </c>
-      <c r="B1" t="str">
-        <v>response</v>
-      </c>
-    </row>
-    <row r="2" xml:space="preserve">
-      <c r="A2" t="str">
-        <v>หนึ่ง</v>
-      </c>
-      <c r="B2" t="str" xml:space="preserve">
-        <v xml:space="preserve">กฎหมายทะเบียนพาณิชย์กฎหมายลิขสิทธิ์ พ.ศ.2537
-กฎหมายขายตรงและตลาดขายตรง พ.ศ.2545
-กฎหมายธุรกรรมทางอิเล็กทรอนิกส์ พ.ศ.2544
-กฎหมายคุ้มครองผู้บริโภค พ.ศ.2522
-กฎหมายว่าด้วยเกี่ยวกับการกระทำผิดเกี่ยวกับคอมพิวเตอร์ พ.ศ.2560
-กฎหมายภาษี (ประมวลรัษฎากร)
-พระราชบัญญัติการแข่งขันทางการค้า
-กฎหมายว่าด้วยราคาสินค้าและบริการ พ.ศ.2542
-กฎหมายผลิตภัณฑ์อาหารและยา </v>
-      </c>
-    </row>
-    <row r="3" xml:space="preserve">
-      <c r="A3" t="str">
-        <v>สอง</v>
-      </c>
-      <c r="B3" t="str" xml:space="preserve">
-        <v xml:space="preserve">พระราชบัญญัติลิขสิทธิ์ พ.ศ. 2537  ผู้ขายสินค้าทางออนไลน์ต้องไม่ขายสินค้าละเมิดลิขสิทธิ์ คือบรรดาหนังสือ โปรแกรมคอมพิวเตอร์หรือ แอพพลิเคชั่น ต่างฯ เทปซีดีหนังและเพลง ที่ละเมิดลิขสิทธิ์ของผู้อื่น  ผู้ขายสินค้าละเมิดลิขสิทธิ์มีโทษปรับตั้งแต่หนึ่งหมื่นบาทถึงหนึ่งแสนบาท ถ้าเป็นการขายเพื่อการค้า มีโทษจำคุกตั้งแต่สามเดือนถึงสองปี ปรับตั้งแต่ห้าหมื่นบาทถึงสี่แสนบาท_x000d_
-การแชร์รูป ข้อความ หรือคลิปวีดีโอของบุคคลอื่นในช่องทางต่างๆของร้านค้าถึงแม้ว่าจะให้ Credit ก็ถือว่าละเมิด และแม้ว่าการโพสนั้นจะไม่เกี่ยวข้องกับสินค้าที่ร้านจำหน่าย เช่น การโพสภาพดาราบนเพจของร้านค้าซึ่งเป็นการทำเพื่อการค้า ดังนั้นภาพดังกล่าวหากไม่ได้รับอนุญาตให้นำมาใช้จากเจ้าของภาพจึงถือว่าเป็นการละเมิดลิขสิทธิ์ได้  รูปภาพ ข้อความ หรือคลิปวีดีโอที่นำมาใช้กับร้านค้าถึงแม้จะเป็นภาพสินค้าที่ร้านจำหน่าย หากไม่ได้รับอนุญาตจากผู้สร้างสรรค์ ภาพ ข้อความ หรือคลิปวีดีโอถือเป็นการละเมิด ดังนั้นร้านค้าออนไลน์จึงไม่ควรแชร์ รูป ข้อความ หรือคลิปวีดีโอ โดยไม่ได้รับอนุญาตจากผู้สร้างสรรค์หากต้องการจะแชร์ภาพข่าวหรือข้อมูลใดๆก็ต้องให้เครดิตที่มาทุกครั้งซึ่งถ้าหากฝ่าฝืนจะมีโทษปรับหรือจำคุกตามมาตรา 53/1  พ.ร.บ.ลิขสิทธิ์</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>สาม</v>
-      </c>
-      <c r="B4" t="str">
-        <v>การจดทะเบียนพาณิชย์สมารถยื่นขอจดทะเบียนพาณิชย์ ณ สำนักงานทะเบียนพาณิชย์กรุงเทพมหานคร (สำนักงานเขตต่างฯ) เมืองพัทยา เทศบาล องค์การบริหารส่วนตำบลที่สำนักงานแห่งใหญ่ตั้งอยู่ในท้องที่ หรือองค์การบริหารส่วนจังหวัดเฉพาะในท้องที่นอกและองค์การบริหารส่วนตำบลเขตเทศบาล ทั้งนี้ก็เพื่อให้มีหลักฐานแสดงว่าผู้ขายมีตัวตนอยู่จริง เป็นใครอยู่ที่ไหนเพราะการขายสินค้าออนไลน์ไม่จำเป็นต้องมีหน้าร้านผู้ซื้อผู้ขายไม่ได้พบกับผู้ซื้อไม่รู้ว่าผู้ขายเป็นใครอยู่ที่ไหนหากมีปัญหาก็จะได้มีหนทางติดต่อสื่อสารกันได้</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>สี่</v>
-      </c>
-      <c r="B5" t="str">
-        <v>ตามกฎหมาย หากจะเปิดร้านขายของออนไลน์ต้องไปจดทะเบียนพาณิชย์อิเล็กทรอนิกส์ กฎหมายนี้บังคับทั้งการขายของออนไลน์แบบบุคคลธรรมดาและนิติบุคคล ทั้งแบบมีหน้าร้านและไม่มีหน้าร้าน หากไม่ทำตามก็มีโทษปรับสูงสุดไม่เกิน 2,000 บาท และปรับไม่เกินวันละ 100 บาท จนกว่าจะไปจดทะเบียนให้ถูกต้องตามกฎหมาย</v>
-      </c>
-    </row>
-    <row r="6" xml:space="preserve">
-      <c r="A6" t="str">
-        <v>ห้า</v>
-      </c>
-      <c r="B6" t="str" xml:space="preserve">
-        <v xml:space="preserve">ร้านขายของออนไลน์ ที่ต้องจดทะเบียนพาณิชย์อิเล็กทรอนิกส์ ได้แก่_x000d_
-1.ร้านขายของออนไลน์/ผู้ขายสินค้า/ผู้ให้บริการ ผ่านระบบอินเทอร์เน็ตและโซเชียลมีเดีย_x000d_
-2.ผู้ให้บริการอินเทอร์เน็ต (Internet Service Provider : ISP)_x000d_
-3.ผู้ให้เช่าพื้นที่ของเครื่องคอมพิวเตอร์แม่ข่าย (Webhosting)_x000d_
-4.ผู้ให้บริการเป็นตัวกลางในการซื้อขายสินค้าและบริการ ผ่านอินเทอร์เน็ต (E-Marketplace) เช่น Kaidee, Shopee, Lazada_x000d_
-</v>
-      </c>
-    </row>
-    <row r="7" xml:space="preserve">
-      <c r="A7" t="str">
-        <v>หก</v>
-      </c>
-      <c r="B7" t="str" xml:space="preserve">
-        <v xml:space="preserve">พ.ร.บ. คุ้มครองผู้บริโภค พ.ศ. 2522  มาตรา 224 ได้กำหนดหลักเกณฑ์ในการโฆษณาไว้ว่า การโฆษณา จะต้องไม่ใช้ข้อความ (รวมถึงภาพของสินค้า) ที่เป็นการไม่เป็นธรรมต่อผู้บริโภคหรือใช้ข้อความที่อาจก่อให้เกิด ผลเสียต่อสังคมเป็นส่วนรวม ซึ่งมีลักษณะดังนี้_x000d_
- (1) ข้อความที่เป็นเท็จหรือเกินความจริง_x000d_
- (2) ข้อความที่จะก่อให้เกิดความเข้าใจผิดในสาระสำคัญเกี่ยวกับสินค้าหรือบริการไม่ว่าจะกระทำโดยใช้หรืออ้างอิงรายงานทางวิชาการ สถิติ หรือสิ่งใดสิ่งหนึ่งอันไม่เป็นความจริงหรือเกิน ความจริงหรือไม่ก็ตาม _x000d_
- (3) ข้อความที่เป็นการสนับสนุนโดยตรงหรือโดยอ้อมให้มีการกระทาผิดกฎหมายหรือศีลธรรม หรือนำไปสู่ความเสื่อมเสียในวัฒนธรรมของชาติ_x000d_
- (4) ข้อความที่จะทาให้เกิดความแตกแยกหรือเสื่อมเสียความสามัคคีในหมู่ประชาชน _x000d_
- (5) ข้อความอย่างอื่นตามที่กำหนดในกฎกระทรวง</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>เจ็ด</v>
-      </c>
-      <c r="B8" t="str">
-        <v>การขายยาผ่านช่องทางออนไลน์ถือว่ามีความผิด เพราะ พ.ร.บ.ยา พ.ศ. 2510 มีการกำหนดว่าการขายยาจะต้องไม่ขายนอกสถานที่ที่ได้กำหนดไว้ในใบอนุญาต และทั้งตามม.19 ยาไม่ใช่สินค้าทั่วไปจึงจำเป็นจะต้องได้รับคำแนะนำที่ถูกต้องจากผู้ปฏิบัติวิชาชีพโดยตรง ดังนั้นกล่าวให้เข้าใจโดยง่ายคือการขายในอินเทอร์เน็ตถือเป็นการขายนอกสถานที่ที่อนุญาต โดยหากมีการฝ่าฝืนก็จะมีโทษจำคุกไม่เกิน 5 ปี หรือปรับไม่เกิน 10,000 บาท และอาจจะมีความผิดฐานโฆษณาด้วย ซึ่งอาจเกี่ยวข้องกับการโอ้อวดสรรพคุณเกินจริงซึ่งผิดกฎหมายม.88 ที่มีโทษปรับไม่เกิน 100,000 บาท ทั้งนี้ในกฎหมายได้ยกเว้นยาสามัญประจำบ้านให้สามารถขายได้ตามร้านสะดวกซื้อ ร้านขายของทั่วไป รวมถึงการขายยาออนไลน์ด้วย โดยยาสามัญประจำบ้าน  (household-medicine) คือยาที่สามารถซื้อได้โดยไม่จำเป็นจะต้องมีบุคลากรทางการแพทย์เป็นผู้จ่าย เนื่องจากเป็นยาที่มีความปลอดภัยในระดับหนึ่ง สามารถซื้อเองได้ ปัจจุบันนี้ทางองค์กรอาหารและยา (อ.ย.) ได้มีประกาศยาสามัญประจำบ้านแผนปัจจุบันทั้งหมด 52 รายการและยาสามัญประจำบ้านแผนโบราณทั้งหมด 28 รายการ ดังนั้น หากพ่อค้าแม่ขายท่านใดที่จะขายยาสามัญประจำบ้านก็ทำได้ ไม่มีความผิด</v>
-      </c>
-    </row>
-    <row r="9" xml:space="preserve">
-      <c r="A9" t="str">
-        <v>แปด</v>
-      </c>
-      <c r="B9" t="str" xml:space="preserve">
-        <v xml:space="preserve">มาตรา 9 (5) มาตรา 28 แห่งพระราชบัญญัติว่าด้วยราคาสินค้าและบริการ พ.ศ. 2542  คณะกรรมการกลางว่าด้วยราคาสินค้าและบริการ ซึ่งผู้ประกอบธุรกิจเกี่ยวกับการจำหน่ายสินค้า หรือบริการผ่านระบบออนไลน์นั้นต้องแสดงรายละเอียดของสินค้าให้ชัดเจน ครบถ้วน เปิดเผย อ่านง่าย_x000d_
-ทั้งนี้การแสดงราคาจำหน่ายสินค้าและบริการนั้น ต้องแสดงราคาต่อหน่วย โดยจะมีตัวเลขภาษาใดก็ได้แต่ต้องมีตัวเลขอารบิกอยู่ด้วยส่วนข้อความอื่นๆที่แสดงควบคู่กับการจำหน่ายนั้นจะเขียนภาษาใดก็ได้แต่ต้องมีภาษาไทย ซึ่งกรณีที่มีการเรียกเก็บค่าใช้จ่ายอื่น ๆ นอกเหนือจากราคาสินค้านั้น ต้องแสดงให้ชัดเจนครบถ้วนและเปิดเผย โดยแสดงควบคู่กับราคาจำหน่าย</v>
-      </c>
-    </row>
-    <row r="10" xml:space="preserve">
-      <c r="A10" t="str">
-        <v>เก้า</v>
-      </c>
-      <c r="B10" t="str" xml:space="preserve">
-        <v xml:space="preserve">การเสียภาษีออนไลน์ ปัจจุบันร้านค้าออนไลน์ก็ต้องยื่นเสียภาษีหากมีรายได้ตามเกณฑ์ ดังนี้ _x000d_
-1. ภาษีเงินได้บุคคลธรรมดา หากมีเงินได้สุทธิตั้งแต่ 150,000 บาท/ปีขึ้นไป โดยเป็นการนำรายได้ทั้งหมดจากการขายสินค้าออนไลน์มาหักค่าใช้จ่ายก่อนที่จะนำไปคำนวณภาษี ซึ่งการคิดค่าใช้จ่าย สามารถ คิดได้ 2 วิธี คือ "แบบเหมา" จะเป็นการหักต้นทุนในสัดส่วนร้อยละ 60 ของรายได้ หรือการนำร้อยละ 40 ของ รายได้ทั้งหมดไปคิดภาษี ส่วนอีกวิธีจะคิด "แบบตามความจำเป็น" คือ น าค่าใช้จ่ายที่เกิดขึ้นจริง จากการขาย สินค้าออนไลน์มาหักออก ซึ่งวิธีนี้จำเป็นต้องมีใบเสร็จ หรือใบกำกับภาษี หรือเอกสารแสดงรายได้ ค่าใช้จ่ายต่าง ๆ ให้ถูกต้อง และครบถ้วน โดยวิธีนี้จะมีความยุ่งยากมาก ดังนั้นเจ้าของกิจการ หรือพ่อค้าแม่ค้าออนไลน์มักเลือกจ่าย "แบบเหมา" มากกว่า _x000d_
-2. ภาษีมูลค่าเพิ่ม (VAT) หากมีรายได้มากกว่า 1.8 ล้านบาท/ปีซึ่งเจ้าของกิจการหรือพ่อค้า แม่ค้าออนไลน์จะต้องไปยื่นคำขอจดทะเบียนภาษีมูลค่าเพิ่มที่สรรพากรในพื้นที่ ภายใน 30 นับตั้งแต่วันที่มีรายได้เกิน และในทุกๆ เดือน จะต้องนำใบกำกับภาษีไปยื่นเพื่อเสียภาษีแก่กรมสรรพากรภายในวันที่ 15 ของเดือนถัดไป </v>
-      </c>
-    </row>
-    <row r="11" xml:space="preserve">
-      <c r="A11" t="str">
-        <v>สิบ</v>
-      </c>
-      <c r="B11" t="str" xml:space="preserve">
-        <v xml:space="preserve">ไม่ได้ เนื่องจาก _x000d_
-1. กรณีเจ้าของเว็บไซต์ที่จดทะเบียนเว็บไซต์ไว้เพื่อขายสินค้าของตนเองก็ดีหรือเป็นคนกลางในการนำ สินค้าของบุคคลอื่นมาขายผ่านหน้าเว็บไซต์ก็ดี มีหน้าที่โดยตรงในการต้องไปจดทะเบียนต่อสำนักงานคณะกรรมการคุ้มครองผู้บริโภค ทั้งนี้เจ้าของเว็บไซต์จะต้องแจ้ง รายละเอียดเกี่ยวกับชนิดหรือประเภทของสินค้า ชื่อที่อยู่ของเจ้าของ ผลิตภัณฑ์ วิธีการซื้อขาย เงื่อนไขต่างๆ ให้ นายทะเบียนการประกอบธุรกิจตลาดแบบตรงทราบด้วย หากมีปัญหาการผิดสัญญาก็ดี สินค้าไม่ได้มาตรฐาน หรือไม่ปลอดภัยก็ดีสำนักงานคณะกรรมการคุ้มครองผู้บริโภคย่อมสามารถตรวจสอบและติดตามผู้ต้องรับผิดได้_x000d_
-2. กรณีบริษัทห้างร้านหรือบุคคลธรรมดาที่เป็นเจ้าของผลิตภัณฑ์ ไม่ว่าจะเป็นผู้ผลิต ผู้นำเข้าหรือผู้แทนจำหน่าย หรือผู้ขาย หากจดทะเบียนเว็บไซต์เพื่อค้าขายสินค้าผ่านอินเตอร์เน็ตเป็นของตนเอง โดยไม่ผ่านเว็บไซต์ที่เป็นสื่อกลางดังที่กล่าวมาในข้อ 1.1 ดังนั้นบริษัท ห้างร้าน หรือบุคคลธรรมดาที่เป็นเจ้าของ ผลิตภัณฑ์จะต้องเป็นผู้มีหน้าที่ต้องไปจดทะเบียนการประกอบธุรกิจตลาดแบบตรงต่อสำนักงานคณะกรรมการคุ้มครองผู้บริโภคโดยตรง _x000d_
-3. ธุรกิจตลาดแบบตรงที่มีหน้าที่ต้องจดทะเบียนต่อสำนักงานคณะกรรมการคุ้มครองผู้บริโภคตามพระราชบัญญัติขายตรง และตลาดแบบตรง พ.ศ. 2545 นั้น หมายรวมถึงบุคคลที่ทำการค้าขายสินค้าผ่านสื่ออื่นๆด้วย เช่น สื่อโทรศัพท์ โทรสาร หรือเครื่องมือสื่อสารอิเล็กทรอนิกส์ในรูปแบบอื่นๆ</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>ทักทาย</v>
-      </c>
-      <c r="B12" t="str">
-        <v>สวัสดีจ้า</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>ทักทาย</v>
-      </c>
-      <c r="B13" t="str">
-        <v>สวัสดีค้าบบ</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>ทักทาย</v>
-      </c>
-      <c r="B15" t="str">
-        <v>สวัสดี</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>ทักทาย</v>
-      </c>
-      <c r="B16" t="str">
-        <v>สวัสดีงับ</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>สบายดี</v>
-      </c>
-      <c r="B17" t="str">
-        <v>สบายดีจ้าา</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>สบายดี</v>
-      </c>
-      <c r="B18" t="str">
-        <v>สบายดีค้าบบ</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>สบายดี</v>
-      </c>
-      <c r="B19" t="str">
-        <v>สบายดีงับบ</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>บอทโง่</v>
-      </c>
-      <c r="B23" t="str">
-        <v>เราขอโทษ</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>ชมบอท</v>
-      </c>
-      <c r="B25" t="str">
-        <v>ขอบคุณค้าบ</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>ทำอะไร</v>
-      </c>
-      <c r="B27" t="str">
-        <v>รอให้ความช่วยเหลือด้านกฎหมายค้าบ</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>ชื่ออะไร</v>
-      </c>
-      <c r="B29" t="str">
-        <v>น้องบอทค้าบบ</v>
-      </c>
-    </row>
-    <row r="31" xml:space="preserve">
-      <c r="A31" t="str">
-        <v>หัวข้อ</v>
-      </c>
-      <c r="B31" t="str" xml:space="preserve">
-        <v xml:space="preserve">1. กฎหมายที่สำคัญ
-2. การฝากร้าน
-3. ขั้นตอนการจดทะเบียนพาณิชย์ค้าขายออนไลน์
-4. เริ่มต้นเปิดร้าน
-5. ร้านแบบไหนต้องจดทะเบียนอิเล็กทรอนิกส์
-6. กม.ขายของออนไลน์กับกม.คุ้มครองผู้บริโภค
-7. สินค้าที่ห้ามขายออนไลน์
-8. รายละเอียดที่ต้องแสดงในการขาย
-9. การเสียภาษี
-10. การขายตรงได้ไหม</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B31"/>
+    <ignoredError sqref="A1:B1 A4 A2 A3 A12:B31 A11 A10 A9 A8 A7 A6 A5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Projects\baisd\chat_bot_team\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F85CA08-B563-465C-9686-2B0D5F8C8F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E75B08-0695-44AE-AF3C-B7DAD6FD19D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>tag</t>
   </si>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>ยินดีจ้า</t>
+  </si>
+  <si>
+    <t>มีคำถาม</t>
+  </si>
+  <si>
+    <t>ถามได้เลยค้าบบ</t>
+  </si>
+  <si>
+    <t>ถามมาได้เลยค้าบบ</t>
   </si>
 </sst>
 </file>
@@ -565,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -773,6 +782,22 @@
         <v>43</v>
       </c>
     </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Projects\baisd\chat_bot_team\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E75B08-0695-44AE-AF3C-B7DAD6FD19D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB526C86-0C0C-447F-A896-7D1AA32A5E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -29,17 +39,6 @@
   </si>
   <si>
     <t>หนึ่ง</t>
-  </si>
-  <si>
-    <t xml:space="preserve">กฎหมายทะเบียนพาณิชย์กฎหมายลิขสิทธิ์ พ.ศ.2537
-กฎหมายขายตรงและตลาดขายตรง พ.ศ.2545
-กฎหมายธุรกรรมทางอิเล็กทรอนิกส์ พ.ศ.2544
-กฎหมายคุ้มครองผู้บริโภค พ.ศ.2522
-กฎหมายว่าด้วยเกี่ยวกับการกระทำผิดเกี่ยวกับคอมพิวเตอร์ พ.ศ.2560
-กฎหมายภาษี (ประมวลรัษฎากร)
-พระราชบัญญัติการแข่งขันทางการค้า
-กฎหมายว่าด้วยราคาสินค้าและบริการ พ.ศ.2542
-กฎหมายผลิตภัณฑ์อาหารและยา </t>
   </si>
   <si>
     <t>สอง</t>
@@ -144,16 +143,6 @@
 10. การขายตรงได้ไหม</t>
   </si>
   <si>
-    <t>พระราชบัญญัติลิขสิทธิ์ พ.ศ. 2537  ผู้ขายสินค้าทางออนไลน์ต้องไม่ขายสินค้าละเมิดลิขสิทธิ์ คือบรรดาหนังสือ โปรแกรมคอมพิวเตอร์หรือ แอพพลิเคชั่น ต่างฯ เทปซีดีหนังและเพลง ที่ละเมิดลิขสิทธิ์ของผู้อื่น  ผู้ขายสินค้าละเมิดลิขสิทธิ์มีโทษปรับตั้งแต่หนึ่งหมื่นบาทถึงหนึ่งแสนบาท ถ้าเป็นการขายเพื่อการค้า มีโทษจำคุกตั้งแต่สามเดือนถึงสองปี ปรับตั้งแต่ห้าหมื่นบาทถึงสี่แสนบาท
-การแชร์รูป ข้อความ หรือคลิปวีดีโอของบุคคลอื่นในช่องทางต่างๆของร้านค้าถึงแม้ว่าจะให้ Credit ก็ถือว่าละเมิด และแม้ว่าการโพสนั้นจะไม่เกี่ยวข้องกับสินค้าที่ร้านจำหน่าย เช่น การโพสภาพดาราบนเพจของร้านค้าซึ่งเป็นการทำเพื่อการค้า ดังนั้นภาพดังกล่าวหากไม่ได้รับอนุญาตให้นำมาใช้จากเจ้าของภาพจึงถือว่าเป็นการละเมิดลิขสิทธิ์ได้  รูปภาพ ข้อความ หรือคลิปวีดีโอที่นำมาใช้กับร้านค้าถึงแม้จะเป็นภาพสินค้าที่ร้านจำหน่าย หากไม่ได้รับอนุญาตจากผู้สร้างสรรค์ ภาพ ข้อความ หรือคลิปวีดีโอถือเป็นการละเมิด ดังนั้นร้านค้าออนไลน์จึงไม่ควรแชร์ รูป ข้อความ หรือคลิปวีดีโอ โดยไม่ได้รับอนุญาตจากผู้สร้างสรรค์หากต้องการจะแชร์ภาพข่าวหรือข้อมูลใดๆก็ต้องให้เครดิตที่มาทุกครั้งซึ่งถ้าหากฝ่าฝืนจะมีโทษปรับหรือจำคุกตามมาตรา 53/1  พ.ร.บ.ลิขสิทธิ์</t>
-  </si>
-  <si>
-    <t>ไม่ได้ เนื่องจาก 
-1. กรณีเจ้าของเว็บไซต์ที่จดทะเบียนเว็บไซต์ไว้เพื่อขายสินค้าของตนเองก็ดีหรือเป็นคนกลางในการนำ สินค้าของบุคคลอื่นมาขายผ่านหน้าเว็บไซต์ก็ดี มีหน้าที่โดยตรงในการต้องไปจดทะเบียนต่อสำนักงานคณะกรรมการคุ้มครองผู้บริโภค ทั้งนี้เจ้าของเว็บไซต์จะต้องแจ้ง รายละเอียดเกี่ยวกับชนิดหรือประเภทของสินค้า ชื่อที่อยู่ของเจ้าของ ผลิตภัณฑ์ วิธีการซื้อขาย เงื่อนไขต่างๆ ให้ นายทะเบียนการประกอบธุรกิจตลาดแบบตรงทราบด้วย หากมีปัญหาการผิดสัญญาก็ดี สินค้าไม่ได้มาตรฐาน หรือไม่ปลอดภัยก็ดีสำนักงานคณะกรรมการคุ้มครองผู้บริโภคย่อมสามารถตรวจสอบและติดตามผู้ต้องรับผิดได้
-2. กรณีบริษัทห้างร้านหรือบุคคลธรรมดาที่เป็นเจ้าของผลิตภัณฑ์ ไม่ว่าจะเป็นผู้ผลิต ผู้นำเข้าหรือผู้แทนจำหน่าย หรือผู้ขาย หากจดทะเบียนเว็บไซต์เพื่อค้าขายสินค้าผ่านอินเตอร์เน็ตเป็นของตนเอง โดยไม่ผ่านเว็บไซต์ที่เป็นสื่อกลางดังที่กล่าวมาในข้อ 1.1 ดังนั้นบริษัท ห้างร้าน หรือบุคคลธรรมดาที่เป็นเจ้าของ ผลิตภัณฑ์จะต้องเป็นผู้มีหน้าที่ต้องไปจดทะเบียนการประกอบธุรกิจตลาดแบบตรงต่อสำนักงานคณะกรรมการคุ้มครองผู้บริโภคโดยตรง 
-3. ธุรกิจตลาดแบบตรงที่มีหน้าที่ต้องจดทะเบียนต่อสำนักงานคณะกรรมการคุ้มครองผู้บริโภคตามพระราชบัญญัติขายตรง และตลาดแบบตรง พ.ศ. 2545 นั้น หมายรวมถึงบุคคลที่ทำการค้าขายสินค้าผ่านสื่ออื่นๆด้วย เช่น สื่อโทรศัพท์ โทรสาร หรือเครื่องมือสื่อสารอิเล็กทรอนิกส์ในรูปแบบอื่นๆ</t>
-  </si>
-  <si>
     <t xml:space="preserve">การเสียภาษีออนไลน์ ปัจจุบันร้านค้าออนไลน์ก็ต้องยื่นเสียภาษีหากมีรายได้ตามเกณฑ์ ดังนี้ 
 1. ภาษีเงินได้บุคคลธรรมดา หากมีเงินได้สุทธิตั้งแต่ 150,000 บาท/ปีขึ้นไป โดยเป็นการนำรายได้ทั้งหมดจากการขายสินค้าออนไลน์มาหักค่าใช้จ่ายก่อนที่จะนำไปคำนวณภาษี ซึ่งการคิดค่าใช้จ่าย สามารถ คิดได้ 2 วิธี คือ "แบบเหมา" จะเป็นการหักต้นทุนในสัดส่วนร้อยละ 60 ของรายได้ หรือการนำร้อยละ 40 ของ รายได้ทั้งหมดไปคิดภาษี ส่วนอีกวิธีจะคิด "แบบตามความจำเป็น" คือ น าค่าใช้จ่ายที่เกิดขึ้นจริง จากการขาย สินค้าออนไลน์มาหักออก ซึ่งวิธีนี้จำเป็นต้องมีใบเสร็จ หรือใบกำกับภาษี หรือเอกสารแสดงรายได้ ค่าใช้จ่ายต่าง ๆ ให้ถูกต้อง และครบถ้วน โดยวิธีนี้จะมีความยุ่งยากมาก ดังนั้นเจ้าของกิจการ หรือพ่อค้าแม่ค้าออนไลน์มักเลือกจ่าย "แบบเหมา" มากกว่า 
 2. ภาษีมูลค่าเพิ่ม (VAT) หากมีรายได้มากกว่า 1.8 ล้านบาท/ปีซึ่งเจ้าของกิจการหรือพ่อค้า แม่ค้าออนไลน์จะต้องไปยื่นคำขอจดทะเบียนภาษีมูลค่าเพิ่มที่สรรพากรในพื้นที่ ภายใน 30 นับตั้งแต่วันที่มีรายได้เกิน และในทุกๆ เดือน จะต้องนำใบกำกับภาษีไปยื่นเพื่อเสียภาษีแก่กรมสรรพากรภายในวันที่ 15 ของเดือนถัดไป </t>
@@ -195,6 +184,26 @@
   </si>
   <si>
     <t>ถามมาได้เลยค้าบบ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. กฎหมายทะเบียนพาณิชย์กฎหมายลิขสิทธิ์ พ.ศ.2537
+2. กฎหมายขายตรงและตลาดขายตรง พ.ศ.2545
+3. กฎหมายธุรกรรมทางอิเล็กทรอนิกส์ พ.ศ.2544
+4. กฎหมายคุ้มครองผู้บริโภค พ.ศ.2522
+5. กฎหมายว่าด้วยเกี่ยวกับการกระทำผิดเกี่ยวกับคอมพิวเตอร์ พ.ศ.2560
+6. กฎหมายภาษี (ประมวลรัษฎากร)
+7. พระราชบัญญัติการแข่งขันทางการค้า
+8. กฎหมายว่าด้วยราคาสินค้าและบริการ พ.ศ.2542
+9. กฎหมายผลิตภัณฑ์อาหารและยา </t>
+  </si>
+  <si>
+    <t>การแชร์รูปภาพหรือข้อความต่างๆ เกี่ยวกับร้านค้าออนไลน์ของตนในพื้นที่โซเซียลมีดีของผู้อื่นผิดกฎหมายนะครับ</t>
+  </si>
+  <si>
+    <t>ไม่สามารถขายตรงได้ เนื่องจาก 
+1. กรณีเจ้าของเว็บไซต์ที่จดทะเบียนเว็บไซต์ไว้เพื่อขายสินค้าของตนเองก็ดีหรือเป็นคนกลางในการนำ สินค้าของบุคคลอื่นมาขายผ่านหน้าเว็บไซต์ก็ดี มีหน้าที่โดยตรงในการต้องไปจดทะเบียนต่อสำนักงานคณะกรรมการคุ้มครองผู้บริโภค ทั้งนี้เจ้าของเว็บไซต์จะต้องแจ้ง รายละเอียดเกี่ยวกับชนิดหรือประเภทของสินค้า ชื่อที่อยู่ของเจ้าของ ผลิตภัณฑ์ วิธีการซื้อขาย เงื่อนไขต่างๆ ให้ นายทะเบียนการประกอบธุรกิจตลาดแบบตรงทราบด้วย หากมีปัญหาการผิดสัญญาก็ดี สินค้าไม่ได้มาตรฐาน หรือไม่ปลอดภัยก็ดีสำนักงานคณะกรรมการคุ้มครองผู้บริโภคย่อมสามารถตรวจสอบและติดตามผู้ต้องรับผิดได้
+2. กรณีบริษัทห้างร้านหรือบุคคลธรรมดาที่เป็นเจ้าของผลิตภัณฑ์ ไม่ว่าจะเป็นผู้ผลิต ผู้นำเข้าหรือผู้แทนจำหน่าย หรือผู้ขาย หากจดทะเบียนเว็บไซต์เพื่อค้าขายสินค้าผ่านอินเตอร์เน็ตเป็นของตนเอง โดยไม่ผ่านเว็บไซต์ที่เป็นสื่อกลางดังที่กล่าวมาในข้อ 1.1 ดังนั้นบริษัท ห้างร้าน หรือบุคคลธรรมดาที่เป็นเจ้าของ ผลิตภัณฑ์จะต้องเป็นผู้มีหน้าที่ต้องไปจดทะเบียนการประกอบธุรกิจตลาดแบบตรงต่อสำนักงานคณะกรรมการคุ้มครองผู้บริโภคโดยตรง 
+3. ธุรกิจตลาดแบบตรงที่มีหน้าที่ต้องจดทะเบียนต่อสำนักงานคณะกรรมการคุ้มครองผู้บริโภคตามพระราชบัญญัติขายตรง และตลาดแบบตรง พ.ศ. 2545 นั้น หมายรวมถึงบุคคลที่ทำการค้าขายสินค้าผ่านสื่ออื่นๆด้วย เช่น สื่อโทรศัพท์ โทรสาร หรือเครื่องมือสื่อสารอิเล็กทรอนิกส์ในรูปแบบอื่นๆ</t>
   </si>
 </sst>
 </file>
@@ -576,11 +585,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="77.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -590,212 +602,212 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="225" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
         <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
         <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
         <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
         <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
         <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
         <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Projects\baisd\chat_bot_team\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB526C86-0C0C-447F-A896-7D1AA32A5E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E0AF35-6B08-4CDB-9247-057C84ACEAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,13 +197,13 @@
 9. กฎหมายผลิตภัณฑ์อาหารและยา </t>
   </si>
   <si>
-    <t>การแชร์รูปภาพหรือข้อความต่างๆ เกี่ยวกับร้านค้าออนไลน์ของตนในพื้นที่โซเซียลมีดีของผู้อื่นผิดกฎหมายนะครับ</t>
-  </si>
-  <si>
     <t>ไม่สามารถขายตรงได้ เนื่องจาก 
 1. กรณีเจ้าของเว็บไซต์ที่จดทะเบียนเว็บไซต์ไว้เพื่อขายสินค้าของตนเองก็ดีหรือเป็นคนกลางในการนำ สินค้าของบุคคลอื่นมาขายผ่านหน้าเว็บไซต์ก็ดี มีหน้าที่โดยตรงในการต้องไปจดทะเบียนต่อสำนักงานคณะกรรมการคุ้มครองผู้บริโภค ทั้งนี้เจ้าของเว็บไซต์จะต้องแจ้ง รายละเอียดเกี่ยวกับชนิดหรือประเภทของสินค้า ชื่อที่อยู่ของเจ้าของ ผลิตภัณฑ์ วิธีการซื้อขาย เงื่อนไขต่างๆ ให้ นายทะเบียนการประกอบธุรกิจตลาดแบบตรงทราบด้วย หากมีปัญหาการผิดสัญญาก็ดี สินค้าไม่ได้มาตรฐาน หรือไม่ปลอดภัยก็ดีสำนักงานคณะกรรมการคุ้มครองผู้บริโภคย่อมสามารถตรวจสอบและติดตามผู้ต้องรับผิดได้
 2. กรณีบริษัทห้างร้านหรือบุคคลธรรมดาที่เป็นเจ้าของผลิตภัณฑ์ ไม่ว่าจะเป็นผู้ผลิต ผู้นำเข้าหรือผู้แทนจำหน่าย หรือผู้ขาย หากจดทะเบียนเว็บไซต์เพื่อค้าขายสินค้าผ่านอินเตอร์เน็ตเป็นของตนเอง โดยไม่ผ่านเว็บไซต์ที่เป็นสื่อกลางดังที่กล่าวมาในข้อ 1.1 ดังนั้นบริษัท ห้างร้าน หรือบุคคลธรรมดาที่เป็นเจ้าของ ผลิตภัณฑ์จะต้องเป็นผู้มีหน้าที่ต้องไปจดทะเบียนการประกอบธุรกิจตลาดแบบตรงต่อสำนักงานคณะกรรมการคุ้มครองผู้บริโภคโดยตรง 
 3. ธุรกิจตลาดแบบตรงที่มีหน้าที่ต้องจดทะเบียนต่อสำนักงานคณะกรรมการคุ้มครองผู้บริโภคตามพระราชบัญญัติขายตรง และตลาดแบบตรง พ.ศ. 2545 นั้น หมายรวมถึงบุคคลที่ทำการค้าขายสินค้าผ่านสื่ออื่นๆด้วย เช่น สื่อโทรศัพท์ โทรสาร หรือเครื่องมือสื่อสารอิเล็กทรอนิกส์ในรูปแบบอื่นๆ</t>
+  </si>
+  <si>
+    <t>การแชร์รูปภาพหรือข้อความต่างๆ เกี่ยวกับร้านค้าออนไลน์ของตนในพื้นที่โซเซียลมีเดียของผู้อื่นผิดกฎหมายนะครับ สามารถอ่านเพิ่มเติมได้ที่ https://www.sanook.com/campus/1401439/</t>
   </si>
 </sst>
 </file>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -615,7 +615,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -634,7 +634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -642,7 +642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="150" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -658,7 +658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -666,7 +666,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="180" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -679,7 +679,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">

--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Projects\baisd\chat_bot_team\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_chatbot\chat_bot_team\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E0AF35-6B08-4CDB-9247-057C84ACEAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71A5BAF-56AC-4F00-AE14-7AFB349FCF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>tag</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>การแชร์รูปภาพหรือข้อความต่างๆ เกี่ยวกับร้านค้าออนไลน์ของตนในพื้นที่โซเซียลมีเดียของผู้อื่นผิดกฎหมายนะครับ สามารถอ่านเพิ่มเติมได้ที่ https://www.sanook.com/campus/1401439/</t>
+  </si>
+  <si>
+    <t>ซักหมัดป้ะ</t>
   </si>
 </sst>
 </file>
@@ -585,16 +588,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="77.6640625" customWidth="1"/>
+    <col min="2" max="2" width="77.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -602,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -610,7 +613,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -618,7 +621,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -626,7 +629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -634,7 +637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -642,7 +645,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="150" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -650,7 +653,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -658,7 +661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -666,7 +669,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="180" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -674,7 +677,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="225" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -682,7 +685,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -690,7 +693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -698,7 +701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -706,7 +709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -714,7 +717,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -722,7 +725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -730,7 +733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -738,7 +741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -746,7 +749,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -754,7 +765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -762,7 +773,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -770,7 +781,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -778,7 +789,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -786,7 +797,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -794,7 +805,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -802,7 +813,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -813,7 +824,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B1 A4 A2 A3 A12:B31 A11 A10 A9 A8 A7 A6 A5" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B1 A4 A2 A3 A12:B23 A11 A10 A9 A8 A7 A6 A5 A25:B27 A29:B31" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_chatbot\chat_bot_team\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71A5BAF-56AC-4F00-AE14-7AFB349FCF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECC76C6-B77A-4470-AE84-30A78CE1FFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>tag</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>ซักหมัดป้ะ</t>
+  </si>
+  <si>
+    <t>ให้ความรู้เรื่องกฎหมายการขายของออนไลน์น้าบ</t>
   </si>
 </sst>
 </file>
@@ -773,6 +776,14 @@
         <v>29</v>
       </c>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>

--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_chatbot\chat_bot_team\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECC76C6-B77A-4470-AE84-30A78CE1FFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129BBE72-FB4F-43CC-B54A-09DBD74644E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,82 +760,82 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>38</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>41</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B1 A4 A2 A3 A12:B23 A11 A10 A9 A8 A7 A6 A5 A25:B27 A29:B31" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B1 A4 A2 A3 A12:B23 A11 A10 A9 A8 A7 A6 A5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_chatbot\chat_bot_team\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129BBE72-FB4F-43CC-B54A-09DBD74644E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EF8E00-47D4-4DBE-B08A-BD902BDA0E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>tag</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>ให้ความรู้เรื่องกฎหมายการขายของออนไลน์น้าบ</t>
+  </si>
+  <si>
+    <t>เบื่อ</t>
+  </si>
+  <si>
+    <t>งั้นมาเล่นเกมส์ตอบคำถามกันถ้าตอบถูกหมด 3 ข้อจะได้รางวัลจากน้องบอทแหละ &lt;3 โอเค๊?</t>
   </si>
 </sst>
 </file>
@@ -589,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,6 +838,14 @@
         <v>43</v>
       </c>
     </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_chatbot\chat_bot_team\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EF8E00-47D4-4DBE-B08A-BD902BDA0E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F01FF30-3FCD-4891-8D3F-034460303967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>tag</t>
   </si>
@@ -215,7 +215,13 @@
     <t>เบื่อ</t>
   </si>
   <si>
-    <t>งั้นมาเล่นเกมส์ตอบคำถามกันถ้าตอบถูกหมด 3 ข้อจะได้รางวัลจากน้องบอทแหละ &lt;3 โอเค๊?</t>
+    <t>ตกลง</t>
+  </si>
+  <si>
+    <t>งั้นมาเล่นเกมส์ตอบคำถามกัน ตอบถูกทั้งหมด 3 ข้อและไม่ผิดเลยจะได้รางวัลจากน้องบอทแหละ &lt;3 โอเค๊?</t>
+  </si>
+  <si>
+    <t>ข้อ 1 ประเทศอะไรรวยที่สุดดด? เพราะอะไร?</t>
   </si>
 </sst>
 </file>
@@ -595,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +849,15 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_chatbot\chat_bot_team\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F01FF30-3FCD-4891-8D3F-034460303967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7729CB5-4DB9-42FD-910F-32C0EE8ADB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>tag</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>ข้อ 1 ประเทศอะไรรวยที่สุดดด? เพราะอะไร?</t>
+  </si>
+  <si>
+    <t>ถูกหนึ่ง</t>
+  </si>
+  <si>
+    <t>ข้อ 2 ตอนเที่ยงวันพระจันทร์ไปไหน</t>
   </si>
 </sst>
 </file>
@@ -601,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,6 +866,14 @@
         <v>52</v>
       </c>
     </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_chatbot\chat_bot_team\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7729CB5-4DB9-42FD-910F-32C0EE8ADB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748384FC-BAC2-4288-9742-C601BBD8ED4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>tag</t>
   </si>
@@ -227,7 +227,13 @@
     <t>ถูกหนึ่ง</t>
   </si>
   <si>
-    <t>ข้อ 2 ตอนเที่ยงวันพระจันทร์ไปไหน</t>
+    <t>ข้อ 2 ตอนเที่ยงวันพระจันทร์ไปไหน?</t>
+  </si>
+  <si>
+    <t>ถูกสอง</t>
+  </si>
+  <si>
+    <t>ข้อ 3 ปีอะไรเอ่ย มีหลากสี?</t>
   </si>
 </sst>
 </file>
@@ -607,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,6 +880,14 @@
         <v>54</v>
       </c>
     </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_chatbot\chat_bot_team\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748384FC-BAC2-4288-9742-C601BBD8ED4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED214F18-BB75-424A-ACAF-48E167E302CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>tag</t>
   </si>
@@ -234,6 +234,13 @@
   </si>
   <si>
     <t>ข้อ 3 ปีอะไรเอ่ย มีหลากสี?</t>
+  </si>
+  <si>
+    <t>ถูกสาม</t>
+  </si>
+  <si>
+    <t>ยินดีด้วยค้าบเตง ตอบถูกหมดเยย รับไปสำหรับรางวัลของคนเก่ง &lt;3
+https://www.youtube.com/watch?v=dQw4w9WgXcQ</t>
   </si>
 </sst>
 </file>
@@ -613,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,6 +895,14 @@
         <v>56</v>
       </c>
     </row>
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_chatbot\chat_bot_team\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED214F18-BB75-424A-ACAF-48E167E302CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16FECD9-DA57-4B4E-B890-8851E2F01F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -218,9 +218,6 @@
     <t>ตกลง</t>
   </si>
   <si>
-    <t>งั้นมาเล่นเกมส์ตอบคำถามกัน ตอบถูกทั้งหมด 3 ข้อและไม่ผิดเลยจะได้รางวัลจากน้องบอทแหละ &lt;3 โอเค๊?</t>
-  </si>
-  <si>
     <t>ข้อ 1 ประเทศอะไรรวยที่สุดดด? เพราะอะไร?</t>
   </si>
   <si>
@@ -241,6 +238,9 @@
   <si>
     <t>ยินดีด้วยค้าบเตง ตอบถูกหมดเยย รับไปสำหรับรางวัลของคนเก่ง &lt;3
 https://www.youtube.com/watch?v=dQw4w9WgXcQ</t>
+  </si>
+  <si>
+    <t>งั้นมาเล่นเกมส์ตอบคำถามกัน ตอบถูกทั้งหมด 3 ข้อและไม่ผิดเลยจะได้รู้ความลับของน้องบอทด้วยแหละ &lt;3 โอเค๊?</t>
   </si>
 </sst>
 </file>
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,7 +868,7 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -876,31 +876,31 @@
         <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
         <v>53</v>
-      </c>
-      <c r="B43" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
         <v>55</v>
-      </c>
-      <c r="B44" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_chatbot\chat_bot_team\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16FECD9-DA57-4B4E-B890-8851E2F01F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1D3F02-9531-4671-844E-F6E60792C3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>tag</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>งั้นมาเล่นเกมส์ตอบคำถามกัน ตอบถูกทั้งหมด 3 ข้อและไม่ผิดเลยจะได้รู้ความลับของน้องบอทด้วยแหละ &lt;3 โอเค๊?</t>
+  </si>
+  <si>
+    <t>บอกลา</t>
+  </si>
+  <si>
+    <t>บ้ายบาย ยินดีที่ได้รับใช้นะค้าบ</t>
   </si>
 </sst>
 </file>
@@ -622,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,12 +797,20 @@
         <v>47</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -766,9 +766,33 @@
         <v>อากาศดีมากก</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>where</v>
+      </c>
+      <c r="B59" t="str">
+        <v>i'm everywhere</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>where</v>
+      </c>
+      <c r="B60" t="str">
+        <v>i'm behind you ;)</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>where</v>
+      </c>
+      <c r="B61" t="str">
+        <v>In your Heart ♥♥♥</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B57"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B61"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -734,22 +734,6 @@
         <v>อยู่ในใจเธอค้าบ</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>ใครสร้าง</v>
-      </c>
-      <c r="B54" t="str">
-        <v>เบ๊บ มอส แพรวค้าบบบบ</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>ใครสร้าง</v>
-      </c>
-      <c r="B55" t="str">
-        <v>คนสวยหล่อเท่ค้าบบ</v>
-      </c>
-    </row>
     <row r="56">
       <c r="A56" t="str">
         <v>อากาศ</v>

--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -388,12 +388,20 @@
         <v>response</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" xml:space="preserve">
       <c r="A2" t="str">
         <v>หนึ่ง</v>
       </c>
-      <c r="B2" t="str">
-        <v xml:space="preserve">1. กฎหมายทะเบียนพาณิชย์กฎหมายลิขสิทธิ์ พ.ศ.2537/r2. กฎหมายขายตรงและตลาดขายตรง พ.ศ.2545/r3. กฎหมายธุรกรรมทางอิเล็กทรอนิกส์ พ.ศ.2544/r4. กฎหมายคุ้มครองผู้บริโภค พ.ศ.2522/r5. กฎหมายว่าด้วยเกี่ยวกับการกระทำผิดเกี่ยวกับคอมพิวเตอร์ พ.ศ.2560/r6. กฎหมายภาษี (ประมวลรัษฎากร)/r7. พระราชบัญญัติการแข่งขันทางการค้า/r8. กฎหมายว่าด้วยราคาสินค้าและบริการ พ.ศ.2542/r9. กฎหมายผลิตภัณฑ์อาหารและยา </v>
+      <c r="B2" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. กฎหมายทะเบียนพาณิชย์กฎหมายลิขสิทธิ์ พ.ศ.2537
+2. กฎหมายขายตรงและตลาดขายตรง พ.ศ.2545
+3. กฎหมายธุรกรรมทางอิเล็กทรอนิกส์ พ.ศ.2544
+4. กฎหมายคุ้มครองผู้บริโภค พ.ศ.2522
+5. กฎหมายว่าด้วยเกี่ยวกับการกระทำผิดเกี่ยวกับคอมพิวเตอร์ พ.ศ.2560
+6. กฎหมายภาษี (ประมวลรัษฎากร)
+7. พระราชบัญญัติการแข่งขันทางการค้า
+8. กฎหมายว่าด้วยราคาสินค้าและบริการ พ.ศ.2542
+9. กฎหมายผลิตภัณฑ์อาหารและยา </v>
       </c>
     </row>
     <row r="3">
@@ -425,11 +433,11 @@
         <v>ห้า</v>
       </c>
       <c r="B6" t="str" xml:space="preserve">
-        <v xml:space="preserve">ร้านขายของออนไลน์ ที่ต้องจดทะเบียนพาณิชย์อิเล็กทรอนิกส์ ได้แก่_x000d__x000d_
-1.ร้านขายของออนไลน์/ผู้ขายสินค้า/ผู้ให้บริการ ผ่านระบบอินเทอร์เน็ตและโซเชียลมีเดีย_x000d__x000d_
-2.ผู้ให้บริการอินเทอร์เน็ต (Internet Service Provider : ISP)_x000d__x000d_
-3.ผู้ให้เช่าพื้นที่ของเครื่องคอมพิวเตอร์แม่ข่าย (Webhosting)_x000d__x000d_
-4.ผู้ให้บริการเป็นตัวกลางในการซื้อขายสินค้าและบริการ ผ่านอินเทอร์เน็ต (E-Marketplace) เช่น Kaidee, Shopee, Lazada_x000d__x000d_
+        <v xml:space="preserve">ร้านขายของออนไลน์ ที่ต้องจดทะเบียนพาณิชย์อิเล็กทรอนิกส์ ได้แก่_x000d_
+1.ร้านขายของออนไลน์/ผู้ขายสินค้า/ผู้ให้บริการ ผ่านระบบอินเทอร์เน็ตและโซเชียลมีเดีย_x000d_
+2.ผู้ให้บริการอินเทอร์เน็ต (Internet Service Provider : ISP)_x000d_
+3.ผู้ให้เช่าพื้นที่ของเครื่องคอมพิวเตอร์แม่ข่าย (Webhosting)_x000d_
+4.ผู้ให้บริการเป็นตัวกลางในการซื้อขายสินค้าและบริการ ผ่านอินเทอร์เน็ต (E-Marketplace) เช่น Kaidee, Shopee, Lazada_x000d_
 </v>
       </c>
     </row>
@@ -468,8 +476,8 @@
         <v>เก้า</v>
       </c>
       <c r="B10" t="str" xml:space="preserve">
-        <v xml:space="preserve">การเสียภาษีออนไลน์ ปัจจุบันร้านค้าออนไลน์ก็ต้องยื่นเสียภาษีหากมีรายได้ตามเกณฑ์ ดังนี้ _x000d_
-1. ภาษีเงินได้บุคคลธรรมดา หากมีเงินได้สุทธิตั้งแต่ 150,000 บาท/ปีขึ้นไป โดยเป็นการนำรายได้ทั้งหมดจากการขายสินค้าออนไลน์มาหักค่าใช้จ่ายก่อนที่จะนำไปคำนวณภาษี ซึ่งการคิดค่าใช้จ่าย สามารถ คิดได้ 2 วิธี คือ "แบบเหมา" จะเป็นการหักต้นทุนในสัดส่วนร้อยละ 60 ของรายได้ หรือการนำร้อยละ 40 ของ รายได้ทั้งหมดไปคิดภาษี ส่วนอีกวิธีจะคิด "แบบตามความจำเป็น" คือ น าค่าใช้จ่ายที่เกิดขึ้นจริง จากการขาย สินค้าออนไลน์มาหักออก ซึ่งวิธีนี้จำเป็นต้องมีใบเสร็จ หรือใบกำกับภาษี หรือเอกสารแสดงรายได้ ค่าใช้จ่ายต่าง ๆ ให้ถูกต้อง และครบถ้วน โดยวิธีนี้จะมีความยุ่งยากมาก ดังนั้นเจ้าของกิจการ หรือพ่อค้าแม่ค้าออนไลน์มักเลือกจ่าย "แบบเหมา" มากกว่า _x000d_
+        <v xml:space="preserve">การเสียภาษีออนไลน์ ปัจจุบันร้านค้าออนไลน์ก็ต้องยื่นเสียภาษีหากมีรายได้ตามเกณฑ์ ดังนี้ 
+1. ภาษีเงินได้บุคคลธรรมดา หากมีเงินได้สุทธิตั้งแต่ 150,000 บาท/ปีขึ้นไป โดยเป็นการนำรายได้ทั้งหมดจากการขายสินค้าออนไลน์มาหักค่าใช้จ่ายก่อนที่จะนำไปคำนวณภาษี ซึ่งการคิดค่าใช้จ่าย สามารถ คิดได้ 2 วิธี คือ "แบบเหมา" จะเป็นการหักต้นทุนในสัดส่วนร้อยละ 60 ของรายได้ หรือการนำร้อยละ 40 ของ รายได้ทั้งหมดไปคิดภาษี ส่วนอีกวิธีจะคิด "แบบตามความจำเป็น" คือ น าค่าใช้จ่ายที่เกิดขึ้นจริง จากการขาย สินค้าออนไลน์มาหักออก ซึ่งวิธีนี้จำเป็นต้องมีใบเสร็จ หรือใบกำกับภาษี หรือเอกสารแสดงรายได้ ค่าใช้จ่ายต่าง ๆ ให้ถูกต้อง และครบถ้วน โดยวิธีนี้จะมีความยุ่งยากมาก ดังนั้นเจ้าของกิจการ หรือพ่อค้าแม่ค้าออนไลน์มักเลือกจ่าย "แบบเหมา" มากกว่า 
 2. ภาษีมูลค่าเพิ่ม (VAT) หากมีรายได้มากกว่า 1.8 ล้านบาท/ปีซึ่งเจ้าของกิจการหรือพ่อค้า แม่ค้าออนไลน์จะต้องไปยื่นคำขอจดทะเบียนภาษีมูลค่าเพิ่มที่สรรพากรในพื้นที่ ภายใน 30 นับตั้งแต่วันที่มีรายได้เกิน และในทุกๆ เดือน จะต้องนำใบกำกับภาษีไปยื่นเพื่อเสียภาษีแก่กรมสรรพากรภายในวันที่ 15 ของเดือนถัดไป </v>
       </c>
     </row>
@@ -601,15 +609,15 @@
         <v>หัวข้อ</v>
       </c>
       <c r="B33" t="str" xml:space="preserve">
-        <v xml:space="preserve">1. กฎหมายที่สำคัญ_x000d__x000d_
-2. การฝากร้าน_x000d__x000d_
-3. ขั้นตอนการจดทะเบียนพาณิชย์ค้าขายออนไลน์_x000d__x000d_
-4. เริ่มต้นเปิดร้าน_x000d__x000d_
-5. ร้านแบบไหนต้องจดทะเบียนอิเล็กทรอนิกส์_x000d__x000d_
-6. กม.ขายของออนไลน์กับกม.คุ้มครองผู้บริโภค_x000d__x000d_
-7. สินค้าที่ห้ามขายออนไลน์_x000d__x000d_
-8. รายละเอียดที่ต้องแสดงในการขาย_x000d__x000d_
-9. การเสียภาษี_x000d__x000d_
+        <v xml:space="preserve">1. กฎหมายที่สำคัญ_x000d_
+2. การฝากร้าน_x000d_
+3. ขั้นตอนการจดทะเบียนพาณิชย์ค้าขายออนไลน์_x000d_
+4. เริ่มต้นเปิดร้าน_x000d_
+5. ร้านแบบไหนต้องจดทะเบียนอิเล็กทรอนิกส์_x000d_
+6. กม.ขายของออนไลน์กับกม.คุ้มครองผู้บริโภค_x000d_
+7. สินค้าที่ห้ามขายออนไลน์_x000d_
+8. รายละเอียดที่ต้องแสดงในการขาย_x000d_
+9. การเสียภาษี_x000d_
 10. การขายตรงได้ไหม</v>
       </c>
     </row>
@@ -682,7 +690,7 @@
         <v>ถูกสาม</v>
       </c>
       <c r="B45" t="str" xml:space="preserve">
-        <v xml:space="preserve">ยินดีด้วยค้าบเตง ตอบถูกหมดเยย รับไปสำหรับรางวัลของคนเก่ง &lt;3_x000d__x000d_
+        <v xml:space="preserve">ยินดีด้วยค้าบเตง ตอบถูกหมดเยย รับไปสำหรับรางวัลของคนเก่ง &lt;3_x000d_
 https://www.youtube.com/watch?v=dQw4w9WgXcQ</v>
       </c>
     </row>

--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -433,11 +433,11 @@
         <v>ห้า</v>
       </c>
       <c r="B6" t="str" xml:space="preserve">
-        <v xml:space="preserve">ร้านขายของออนไลน์ ที่ต้องจดทะเบียนพาณิชย์อิเล็กทรอนิกส์ ได้แก่_x000d_
-1.ร้านขายของออนไลน์/ผู้ขายสินค้า/ผู้ให้บริการ ผ่านระบบอินเทอร์เน็ตและโซเชียลมีเดีย_x000d_
-2.ผู้ให้บริการอินเทอร์เน็ต (Internet Service Provider : ISP)_x000d_
-3.ผู้ให้เช่าพื้นที่ของเครื่องคอมพิวเตอร์แม่ข่าย (Webhosting)_x000d_
-4.ผู้ให้บริการเป็นตัวกลางในการซื้อขายสินค้าและบริการ ผ่านอินเทอร์เน็ต (E-Marketplace) เช่น Kaidee, Shopee, Lazada_x000d_
+        <v xml:space="preserve">ร้านขายของออนไลน์ ที่ต้องจดทะเบียนพาณิชย์อิเล็กทรอนิกส์ ได้แก่
+1.ร้านขายของออนไลน์/ผู้ขายสินค้า/ผู้ให้บริการ ผ่านระบบอินเทอร์เน็ตและโซเชียลมีเดีย
+2.ผู้ให้บริการอินเทอร์เน็ต (Internet Service Provider : ISP)
+3.ผู้ให้เช่าพื้นที่ของเครื่องคอมพิวเตอร์แม่ข่าย (Webhosting)
+4.ผู้ให้บริการเป็นตัวกลางในการซื้อขายสินค้าและบริการ ผ่านอินเทอร์เน็ต (E-Marketplace) เช่น Kaidee, Shopee, Lazada
 </v>
       </c>
     </row>

--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -446,11 +446,11 @@
         <v>หก</v>
       </c>
       <c r="B7" t="str" xml:space="preserve">
-        <v xml:space="preserve">พ.ร.บ. คุ้มครองผู้บริโภค พ.ศ. 2522  มาตรา 224 ได้กำหนดหลักเกณฑ์ในการโฆษณาไว้ว่า การโฆษณา จะต้องไม่ใช้ข้อความ (รวมถึงภาพของสินค้า) ที่เป็นการไม่เป็นธรรมต่อผู้บริโภคหรือใช้ข้อความที่อาจก่อให้เกิด ผลเสียต่อสังคมเป็นส่วนรวม ซึ่งมีลักษณะดังนี้_x000d_
- (1) ข้อความที่เป็นเท็จหรือเกินความจริง_x000d_
- (2) ข้อความที่จะก่อให้เกิดความเข้าใจผิดในสาระสำคัญเกี่ยวกับสินค้าหรือบริการไม่ว่าจะกระทำโดยใช้หรืออ้างอิงรายงานทางวิชาการ สถิติ หรือสิ่งใดสิ่งหนึ่งอันไม่เป็นความจริงหรือเกิน ความจริงหรือไม่ก็ตาม _x000d_
- (3) ข้อความที่เป็นการสนับสนุนโดยตรงหรือโดยอ้อมให้มีการกระทาผิดกฎหมายหรือศีลธรรม หรือนำไปสู่ความเสื่อมเสียในวัฒนธรรมของชาติ_x000d_
- (4) ข้อความที่จะทาให้เกิดความแตกแยกหรือเสื่อมเสียความสามัคคีในหมู่ประชาชน _x000d_
+        <v xml:space="preserve">พ.ร.บ. คุ้มครองผู้บริโภค พ.ศ. 2522  มาตรา 224 ได้กำหนดหลักเกณฑ์ในการโฆษณาไว้ว่า การโฆษณา จะต้องไม่ใช้ข้อความ (รวมถึงภาพของสินค้า) ที่เป็นการไม่เป็นธรรมต่อผู้บริโภคหรือใช้ข้อความที่อาจก่อให้เกิด ผลเสียต่อสังคมเป็นส่วนรวม ซึ่งมีลักษณะดังนี้
+ (1) ข้อความที่เป็นเท็จหรือเกินความจริง
+ (2) ข้อความที่จะก่อให้เกิดความเข้าใจผิดในสาระสำคัญเกี่ยวกับสินค้าหรือบริการไม่ว่าจะกระทำโดยใช้หรืออ้างอิงรายงานทางวิชาการ สถิติ หรือสิ่งใดสิ่งหนึ่งอันไม่เป็นความจริงหรือเกิน ความจริงหรือไม่ก็ตาม 
+ (3) ข้อความที่เป็นการสนับสนุนโดยตรงหรือโดยอ้อมให้มีการกระทาผิดกฎหมายหรือศีลธรรม หรือนำไปสู่ความเสื่อมเสียในวัฒนธรรมของชาติ
+ (4) ข้อความที่จะทาให้เกิดความแตกแยกหรือเสื่อมเสียความสามัคคีในหมู่ประชาชน 
  (5) ข้อความอย่างอื่นตามที่กำหนดในกฎกระทรวง</v>
       </c>
     </row>

--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -467,7 +467,7 @@
         <v>แปด</v>
       </c>
       <c r="B9" t="str" xml:space="preserve">
-        <v xml:space="preserve">มาตรา 9 (5) มาตรา 28 แห่งพระราชบัญญัติว่าด้วยราคาสินค้าและบริการ พ.ศ. 2542  คณะกรรมการกลางว่าด้วยราคาสินค้าและบริการ ซึ่งผู้ประกอบธุรกิจเกี่ยวกับการจำหน่ายสินค้า หรือบริการผ่านระบบออนไลน์นั้นต้องแสดงรายละเอียดของสินค้าให้ชัดเจน ครบถ้วน เปิดเผย อ่านง่าย_x000d_
+        <v xml:space="preserve">มาตรา 9 (5) มาตรา 28 แห่งพระราชบัญญัติว่าด้วยราคาสินค้าและบริการ พ.ศ. 2542  คณะกรรมการกลางว่าด้วยราคาสินค้าและบริการ ซึ่งผู้ประกอบธุรกิจเกี่ยวกับการจำหน่ายสินค้า หรือบริการผ่านระบบออนไลน์นั้นต้องแสดงรายละเอียดของสินค้าให้ชัดเจน ครบถ้วน เปิดเผย อ่านง่าย
 ทั้งนี้การแสดงราคาจำหน่ายสินค้าและบริการนั้น ต้องแสดงราคาต่อหน่วย โดยจะมีตัวเลขภาษาใดก็ได้แต่ต้องมีตัวเลขอารบิกอยู่ด้วยส่วนข้อความอื่นๆที่แสดงควบคู่กับการจำหน่ายนั้นจะเขียนภาษาใดก็ได้แต่ต้องมีภาษาไทย ซึ่งกรณีที่มีการเรียกเก็บค่าใช้จ่ายอื่น ๆ นอกเหนือจากราคาสินค้านั้น ต้องแสดงให้ชัดเจนครบถ้วนและเปิดเผย โดยแสดงควบคู่กับราคาจำหน่าย</v>
       </c>
     </row>

--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -486,9 +486,9 @@
         <v>สิบ</v>
       </c>
       <c r="B11" t="str" xml:space="preserve">
-        <v xml:space="preserve">ไม่สามารถขายตรงได้ เนื่องจาก _x000d_
-1. กรณีเจ้าของเว็บไซต์ที่จดทะเบียนเว็บไซต์ไว้เพื่อขายสินค้าของตนเองก็ดีหรือเป็นคนกลางในการนำ สินค้าของบุคคลอื่นมาขายผ่านหน้าเว็บไซต์ก็ดี มีหน้าที่โดยตรงในการต้องไปจดทะเบียนต่อสำนักงานคณะกรรมการคุ้มครองผู้บริโภค ทั้งนี้เจ้าของเว็บไซต์จะต้องแจ้ง รายละเอียดเกี่ยวกับชนิดหรือประเภทของสินค้า ชื่อที่อยู่ของเจ้าของ ผลิตภัณฑ์ วิธีการซื้อขาย เงื่อนไขต่างๆ ให้ นายทะเบียนการประกอบธุรกิจตลาดแบบตรงทราบด้วย หากมีปัญหาการผิดสัญญาก็ดี สินค้าไม่ได้มาตรฐาน หรือไม่ปลอดภัยก็ดีสำนักงานคณะกรรมการคุ้มครองผู้บริโภคย่อมสามารถตรวจสอบและติดตามผู้ต้องรับผิดได้_x000d_
-2. กรณีบริษัทห้างร้านหรือบุคคลธรรมดาที่เป็นเจ้าของผลิตภัณฑ์ ไม่ว่าจะเป็นผู้ผลิต ผู้นำเข้าหรือผู้แทนจำหน่าย หรือผู้ขาย หากจดทะเบียนเว็บไซต์เพื่อค้าขายสินค้าผ่านอินเตอร์เน็ตเป็นของตนเอง โดยไม่ผ่านเว็บไซต์ที่เป็นสื่อกลางดังที่กล่าวมาในข้อ 1.1 ดังนั้นบริษัท ห้างร้าน หรือบุคคลธรรมดาที่เป็นเจ้าของ ผลิตภัณฑ์จะต้องเป็นผู้มีหน้าที่ต้องไปจดทะเบียนการประกอบธุรกิจตลาดแบบตรงต่อสำนักงานคณะกรรมการคุ้มครองผู้บริโภคโดยตรง _x000d_
+        <v xml:space="preserve">ไม่สามารถขายตรงได้ เนื่องจาก 
+1. กรณีเจ้าของเว็บไซต์ที่จดทะเบียนเว็บไซต์ไว้เพื่อขายสินค้าของตนเองก็ดีหรือเป็นคนกลางในการนำ สินค้าของบุคคลอื่นมาขายผ่านหน้าเว็บไซต์ก็ดี มีหน้าที่โดยตรงในการต้องไปจดทะเบียนต่อสำนักงานคณะกรรมการคุ้มครองผู้บริโภค ทั้งนี้เจ้าของเว็บไซต์จะต้องแจ้ง รายละเอียดเกี่ยวกับชนิดหรือประเภทของสินค้า ชื่อที่อยู่ของเจ้าของ ผลิตภัณฑ์ วิธีการซื้อขาย เงื่อนไขต่างๆ ให้ นายทะเบียนการประกอบธุรกิจตลาดแบบตรงทราบด้วย หากมีปัญหาการผิดสัญญาก็ดี สินค้าไม่ได้มาตรฐาน หรือไม่ปลอดภัยก็ดีสำนักงานคณะกรรมการคุ้มครองผู้บริโภคย่อมสามารถตรวจสอบและติดตามผู้ต้องรับผิดได้
+2. กรณีบริษัทห้างร้านหรือบุคคลธรรมดาที่เป็นเจ้าของผลิตภัณฑ์ ไม่ว่าจะเป็นผู้ผลิต ผู้นำเข้าหรือผู้แทนจำหน่าย หรือผู้ขาย หากจดทะเบียนเว็บไซต์เพื่อค้าขายสินค้าผ่านอินเตอร์เน็ตเป็นของตนเอง โดยไม่ผ่านเว็บไซต์ที่เป็นสื่อกลางดังที่กล่าวมาในข้อ 1.1 ดังนั้นบริษัท ห้างร้าน หรือบุคคลธรรมดาที่เป็นเจ้าของ ผลิตภัณฑ์จะต้องเป็นผู้มีหน้าที่ต้องไปจดทะเบียนการประกอบธุรกิจตลาดแบบตรงต่อสำนักงานคณะกรรมการคุ้มครองผู้บริโภคโดยตรง 
 3. ธุรกิจตลาดแบบตรงที่มีหน้าที่ต้องจดทะเบียนต่อสำนักงานคณะกรรมการคุ้มครองผู้บริโภคตามพระราชบัญญัติขายตรง และตลาดแบบตรง พ.ศ. 2545 นั้น หมายรวมถึงบุคคลที่ทำการค้าขายสินค้าผ่านสื่ออื่นๆด้วย เช่น สื่อโทรศัพท์ โทรสาร หรือเครื่องมือสื่อสารอิเล็กทรอนิกส์ในรูปแบบอื่นๆ</v>
       </c>
     </row>

--- a/data/response.xlsx
+++ b/data/response.xlsx
@@ -690,7 +690,7 @@
         <v>ถูกสาม</v>
       </c>
       <c r="B45" t="str" xml:space="preserve">
-        <v xml:space="preserve">ยินดีด้วยค้าบเตง ตอบถูกหมดเยย รับไปสำหรับรางวัลของคนเก่ง &lt;3_x000d_
+        <v xml:space="preserve">ยินดีด้วยค้าบเตง ตอบถูกหมดเยย รับไปสำหรับรางวัลของคนเก่ง &lt;3
 https://www.youtube.com/watch?v=dQw4w9WgXcQ</v>
       </c>
     </row>
